--- a/biology/Botanique/Dracocephalum_moldavica/Dracocephalum_moldavica.xlsx
+++ b/biology/Botanique/Dracocephalum_moldavica/Dracocephalum_moldavica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dracocephalum moldavica ou thé des jardins aussi appelé tête de dragon, mélisse de Moldavie est une plante herbacée de la famille des lamiacées ayant un goût citronné.
 Sur les autres projets Wikimedia :
